--- a/files/HistoriasUsuario.xlsx
+++ b/files/HistoriasUsuario.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_1E2763BAE0C49F956F0E8A8B6961039A13F79EA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F1E6181-24A4-4EE3-BD63-79F1D9C1E258}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Sebas\U\Trabajo Grado\PetShere\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727DAB7-4B44-43A5-AA7A-C3D9C35A0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>LISTA DE PRIORIDADES</t>
   </si>
@@ -495,16 +498,29 @@
   <si>
     <t>RNF</t>
   </si>
+  <si>
+    <t>NOTA: Se desactiva</t>
+  </si>
+  <si>
+    <t>NOTA: Agregar transporte, clases y baño a db</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,8 +567,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +599,38 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -675,113 +727,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,19 +1079,21 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
@@ -1096,37 +1175,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="108.42578125" customWidth="1"/>
-    <col min="6" max="26" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="111.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1146,461 +1226,464 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A5" s="29">
+      <c r="A5" s="47">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="9" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="8" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A11" s="29">
+      <c r="A11" s="47">
         <v>2</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="10" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="10" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="10" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="10" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="45">
+      <c r="A17" s="40">
         <v>3</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="10" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="10" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="10" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A24" s="32">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="44">
         <v>1</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="14" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="14" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="14" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="44">
         <v>2</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="14" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="14" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="14" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="44">
         <v>3</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="14" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="21" t="s">
         <v>63</v>
       </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="36" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="14" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="14" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-    </row>
-    <row r="39" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A39" s="17">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+    </row>
+    <row r="39" spans="1:25" ht="30">
+      <c r="A39" s="54">
         <v>4</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
     </row>
     <row r="41" spans="1:25" ht="14.25" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -1615,184 +1698,187 @@
       <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
       <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
     </row>
     <row r="43" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A43" s="33">
+      <c r="A43" s="45">
         <v>1</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="44" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="10" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="10" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="10" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
     </row>
     <row r="48" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="45">
         <v>2</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="10" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="10" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="10" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1">
       <c r="A53" s="6" t="s">
@@ -1807,124 +1893,124 @@
       <c r="D53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A55" s="33">
+      <c r="A55" s="45">
         <v>1</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="10" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="10" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="10" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A60" s="39">
+      <c r="A60" s="53">
         <v>2</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="21" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="21" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="21" t="s">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="14.25" customHeight="1">
       <c r="A65" s="6" t="s">
@@ -1939,115 +2025,115 @@
       <c r="D65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A67" s="38">
+      <c r="A67" s="52">
         <v>1</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="23" t="s">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="23" t="s">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A71" s="38">
+      <c r="A71" s="52">
         <v>2</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="23" t="s">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="23" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="23" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1">
       <c r="A76" s="6" t="s">
@@ -2062,148 +2148,148 @@
       <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A78" s="33">
+      <c r="A78" s="45">
         <v>1</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="10" t="s">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="10" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A82" s="33">
+      <c r="A82" s="45">
         <v>2</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="10" t="s">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="10" t="s">
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="10" t="s">
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A87" s="33">
+      <c r="A87" s="45">
         <v>1</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="10" t="s">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="10" t="s">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3138,19 +3224,22 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="A48:A51"/>
@@ -3178,10 +3267,6 @@
     <mergeCell ref="D78:D80"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="A70:E70"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A1:E1"/>
@@ -3195,6 +3280,7 @@
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="K47:O47"/>
     <mergeCell ref="P47:T47"/>
     <mergeCell ref="U47:Y47"/>
@@ -3231,26 +3317,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3475,13 +3561,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B317702-39A3-4D3F-9874-29DFD4916A04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B317702-39A3-4D3F-9874-29DFD4916A04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87b52fbb-bcda-4655-933b-db9ca923408f"/>
+    <ds:schemaRef ds:uri="2f6ac48f-da88-4bc9-bb08-cfcd6dc2f36c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EDBB46-9ECC-407D-BB29-EBF25EB5F282}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EDBB46-9ECC-407D-BB29-EBF25EB5F282}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A1893E-3290-4C4F-8C2A-FE49D0BD7E16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A1893E-3290-4C4F-8C2A-FE49D0BD7E16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87b52fbb-bcda-4655-933b-db9ca923408f"/>
+    <ds:schemaRef ds:uri="2f6ac48f-da88-4bc9-bb08-cfcd6dc2f36c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>